--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,98 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>303200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>139200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,28 +990,30 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -968,37 +1021,49 @@
       <c r="K17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
+      <c r="D18" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,42 +1075,50 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="D20" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>65600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1068,86 +1141,104 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>65300</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="D32" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1705,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
-        <v>900</v>
-      </c>
       <c r="F41" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
@@ -1558,13 +1731,19 @@
         <v>900</v>
       </c>
       <c r="J41" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>800</v>
+      </c>
+      <c r="M41" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,211 +1771,259 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>61700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>79900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>289100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1100</v>
       </c>
       <c r="G46" s="3">
         <v>1000</v>
       </c>
       <c r="H46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1265000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>120600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>993800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>355000</v>
+      </c>
+      <c r="F52" s="3">
         <v>354300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>353300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>352300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>350400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>348700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>347200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>346200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2670400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>355900</v>
+      </c>
+      <c r="F54" s="3">
         <v>355100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>354400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>353400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>351400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>349800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>348400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>347200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,129 +2225,155 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>102600</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>564600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>169700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2111,16 +2396,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12100</v>
+        <v>3375400</v>
       </c>
       <c r="E62" s="3">
-        <v>12100</v>
+        <v>6100</v>
       </c>
       <c r="F62" s="3">
         <v>12100</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4109700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F66" s="3">
         <v>12300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>12200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>12800</v>
       </c>
       <c r="G66" s="3">
         <v>12200</v>
       </c>
       <c r="H66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J66" s="3">
         <v>12100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,13 +2726,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5000</v>
+        <v>-2638100</v>
       </c>
       <c r="E72" s="3">
         <v>5000</v>
@@ -2403,19 +2750,25 @@
         <v>5000</v>
       </c>
       <c r="H72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J72" s="3">
         <v>3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1439300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>349500</v>
+      </c>
+      <c r="F76" s="3">
         <v>342800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>342100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>340600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>339300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>337700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>336300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>335000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>122800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>500</v>
+      </c>
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>200</v>
       </c>
       <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,13 +3581,19 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>162700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
@@ -3122,51 +3613,63 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
@@ -3175,12 +3678,18 @@
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,76 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E8" s="3">
         <v>303200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -746,8 +750,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,17 +927,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>22000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,17 +965,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E15" s="3">
         <v>139200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
@@ -971,8 +994,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,31 +1018,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>346300</v>
+      </c>
+      <c r="E17" s="3">
         <v>350800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1027,17 +1054,20 @@
       <c r="M17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-47600</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1053,8 +1083,8 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,17 +1110,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1103,26 +1137,29 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E21" s="3">
         <v>65600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,17 +1184,20 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E22" s="3">
         <v>65300</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1173,8 +1213,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1182,54 +1222,60 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-138900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
@@ -1238,10 +1284,10 @@
         <v>400</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-138100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-138100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,17 +1564,20 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E32" s="3">
         <v>26000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,52 +1593,58 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-138100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-138100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E41" s="3">
         <v>131100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>700</v>
       </c>
       <c r="F41" s="3">
         <v>700</v>
       </c>
       <c r="G41" s="3">
+        <v>700</v>
+      </c>
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,17 +1867,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E43" s="3">
         <v>61700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1803,8 +1896,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1812,17 +1905,20 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E44" s="3">
         <v>79900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1838,8 +1934,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1847,22 +1943,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1871,63 +1970,69 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>418400</v>
+      </c>
+      <c r="E46" s="3">
         <v>289100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1100</v>
       </c>
       <c r="L46" s="3">
         <v>1100</v>
       </c>
       <c r="M46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1316700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1265000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1943,8 +2048,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1952,17 +2057,20 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E48" s="3">
         <v>120600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1978,8 +2086,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1987,17 +2095,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E49" s="3">
         <v>993800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2013,8 +2124,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>355000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>354300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>353300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>352300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>350400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>348700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>347200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>346200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2829900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2670400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>355900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>355100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>354400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>353400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>351400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>349800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>348400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>347200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2357,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E57" s="3">
         <v>102600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -2257,22 +2388,25 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2288,8 +2422,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2297,87 +2431,96 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>530900</v>
+      </c>
+      <c r="E59" s="3">
         <v>446000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>636400</v>
+      </c>
+      <c r="E60" s="3">
         <v>564600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E61" s="3">
         <v>169700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2402,19 +2545,22 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3489300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3375400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>12100</v>
       </c>
       <c r="G62" s="3">
         <v>12100</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4234800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4109700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>12100</v>
       </c>
       <c r="K66" s="3">
         <v>12100</v>
       </c>
       <c r="L66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M66" s="3">
         <v>12300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,16 +2903,19 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2725200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2638100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5000</v>
       </c>
       <c r="F72" s="3">
         <v>5000</v>
@@ -2756,19 +2930,22 @@
         <v>5000</v>
       </c>
       <c r="J72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K72" s="3">
         <v>3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1404900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1439300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>349500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>342800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>342100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>340600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>339300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>337700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>336300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>335000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-138100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,17 +3230,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E83" s="3">
         <v>122800</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3058,8 +3257,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,17 +3512,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3318,8 +3539,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,25 +3624,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>200</v>
       </c>
       <c r="I94" s="3">
         <v>200</v>
@@ -3423,8 +3653,8 @@
       <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>200</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,17 +3830,20 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E100" s="3">
         <v>162700</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3619,20 +3865,23 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3648,8 +3897,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E102" s="3">
         <v>126500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,83 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E8" s="3">
         <v>306000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>303200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -753,8 +757,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,11 +959,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,8 +979,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,20 +988,23 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E15" s="3">
         <v>140200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>139200</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
@@ -997,8 +1020,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,34 +1045,35 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E17" s="3">
         <v>346300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>350800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1057,20 +1084,23 @@
       <c r="N17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-40300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-47600</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1086,8 +1116,8 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,20 +1144,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E20" s="3">
         <v>8700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1140,29 +1174,32 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E21" s="3">
         <v>108500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>65600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,20 +1224,23 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E22" s="3">
         <v>54500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>65300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1216,8 +1256,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1225,60 +1265,66 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-86100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-138900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
@@ -1287,10 +1333,10 @@
         <v>400</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-87000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-138100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-87000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-138100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,20 +1634,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1596,55 +1666,61 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-87000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-138100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-87000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-138100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E41" s="3">
         <v>249000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
-        <v>700</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,22 +1960,25 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E43" s="3">
         <v>70900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>64200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1899,8 +1992,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1908,22 +2001,25 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E44" s="3">
         <v>82600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>79900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>64600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1937,8 +2033,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1946,25 +2042,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
         <v>16000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1973,71 +2072,77 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>442200</v>
+      </c>
+      <c r="E46" s="3">
         <v>418400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>289100</v>
       </c>
-      <c r="F46" s="3">
-        <v>900</v>
-      </c>
       <c r="G46" s="3">
+        <v>151500</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1100</v>
       </c>
       <c r="M46" s="3">
         <v>1100</v>
       </c>
       <c r="N46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1408200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1316700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1265000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>1311100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2051,8 +2156,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2060,22 +2165,25 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E48" s="3">
         <v>115000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>120600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>126400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2089,8 +2197,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,22 +2206,25 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>961600</v>
+      </c>
+      <c r="E49" s="3">
         <v>978000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>993800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>1014400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2127,8 +2238,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
-        <v>355000</v>
-      </c>
       <c r="G52" s="3">
+        <v>356200</v>
+      </c>
+      <c r="H52" s="3">
         <v>354300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>353300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>352300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>350400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>348700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>347200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>346200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2924700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2829900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2670400</v>
       </c>
-      <c r="F54" s="3">
-        <v>355900</v>
-      </c>
       <c r="G54" s="3">
+        <v>2604400</v>
+      </c>
+      <c r="H54" s="3">
         <v>355100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>354400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>353400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>351400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>349800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>348400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>347200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2488,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E57" s="3">
         <v>90700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>102600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>225900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -2391,27 +2522,30 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E58" s="3">
         <v>14700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>469100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2425,8 +2559,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2434,98 +2568,107 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>675800</v>
+      </c>
+      <c r="E59" s="3">
         <v>530900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>446000</v>
       </c>
-      <c r="F59" s="3">
-        <v>300</v>
-      </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>319200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>742500</v>
+      </c>
+      <c r="E60" s="3">
         <v>636400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>564600</v>
       </c>
-      <c r="F60" s="3">
-        <v>400</v>
-      </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>1014000</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
         <v>109100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>169700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>250500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2548,22 +2691,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3616400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3489300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3375400</v>
       </c>
-      <c r="F62" s="3">
-        <v>6100</v>
-      </c>
       <c r="G62" s="3">
-        <v>12100</v>
+        <v>3133400</v>
       </c>
       <c r="H62" s="3">
         <v>12100</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4361900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4234800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4109700</v>
       </c>
-      <c r="F66" s="3">
-        <v>6500</v>
-      </c>
       <c r="G66" s="3">
+        <v>4391800</v>
+      </c>
+      <c r="H66" s="3">
         <v>12300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>12100</v>
       </c>
       <c r="L66" s="3">
         <v>12100</v>
       </c>
       <c r="M66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N66" s="3">
         <v>12300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,19 +3077,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2833100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2725200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2638100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>5000</v>
       </c>
       <c r="G72" s="3">
         <v>5000</v>
@@ -2933,19 +3107,22 @@
         <v>5000</v>
       </c>
       <c r="K72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L72" s="3">
         <v>3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1437300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1404900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1439300</v>
       </c>
-      <c r="F76" s="3">
-        <v>349500</v>
-      </c>
       <c r="G76" s="3">
+        <v>-1787400</v>
+      </c>
+      <c r="H76" s="3">
         <v>342800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>342100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>340600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>339300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>337700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>336300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>335000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-107900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-87000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-138100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,20 +3429,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E83" s="3">
         <v>123700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>122800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3260,8 +3459,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E89" s="3">
         <v>111400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,20 +3733,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3542,8 +3763,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,28 +3854,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>200</v>
       </c>
       <c r="J94" s="3">
         <v>200</v>
@@ -3656,8 +3886,8 @@
       <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>200</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,20 +4076,23 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="E100" s="3">
         <v>9900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>162700</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3868,23 +4114,26 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -3900,8 +4149,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E102" s="3">
         <v>117900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>126500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E8" s="3">
         <v>319000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>306000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>303200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -760,8 +763,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,11 +981,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>22000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -982,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -991,23 +1010,26 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E15" s="3">
         <v>144000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>140200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>139200</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1023,8 +1045,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,37 +1071,38 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E17" s="3">
         <v>384000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>346300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>350800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1087,23 +1113,26 @@
       <c r="O17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-65000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-40300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-47600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1119,8 +1148,8 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,23 +1177,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>8300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1177,32 +1210,35 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-375700</v>
+      </c>
+      <c r="E21" s="3">
         <v>87200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>65600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,23 +1263,26 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E22" s="3">
         <v>51000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>54500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>65300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1259,8 +1298,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1268,66 +1307,72 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-107700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-86100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-138900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
@@ -1336,10 +1381,10 @@
         <v>400</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-107900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-87000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-138100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-107900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-87000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-138100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,23 +1703,26 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1669,58 +1738,64 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-107900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-87000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-138100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-107900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-87000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-138100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>313800</v>
+      </c>
+      <c r="E41" s="3">
         <v>295700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>249000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,26 +2052,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E43" s="3">
         <v>72200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>70900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1995,8 +2087,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2004,26 +2096,29 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E44" s="3">
         <v>60800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>82600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>79900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>64600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2036,8 +2131,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2045,28 +2140,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2075,78 +2173,84 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E46" s="3">
         <v>442200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>418400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>289100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>151500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1100</v>
       </c>
       <c r="N46" s="3">
         <v>1100</v>
       </c>
       <c r="O46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1381000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1408200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1316700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1265000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1311100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2159,8 +2263,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2168,26 +2272,29 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E48" s="3">
         <v>110900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>115000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>120600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>126400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2200,8 +2307,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2209,26 +2316,29 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>948600</v>
+      </c>
+      <c r="E49" s="3">
         <v>961600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>978000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>993800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1014400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,8 +2351,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>356200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>354300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>353300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>352300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>350400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>348700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>347200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>346200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2877500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2924700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2829900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2670400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2604400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>355100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>354400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>353400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>351400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>349800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>348400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>347200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,35 +2618,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>321100</v>
+      </c>
+      <c r="E57" s="3">
         <v>53300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>102600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>225900</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2525,31 +2655,34 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E58" s="3">
         <v>13400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>469100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2562,8 +2695,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2571,108 +2704,117 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>423600</v>
+      </c>
+      <c r="E59" s="3">
         <v>675800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>530900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>446000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>319200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>757500</v>
+      </c>
+      <c r="E60" s="3">
         <v>742500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>636400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>564600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1014000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>109100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>169700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>250500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2694,25 +2836,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3604800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3616400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3489300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3375400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3133400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>12100</v>
       </c>
       <c r="I62" s="3">
         <v>12100</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4364800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4361900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4234800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4109700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4391800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>12100</v>
       </c>
       <c r="M66" s="3">
         <v>12100</v>
       </c>
       <c r="N66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="O66" s="3">
         <v>12300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,22 +3250,25 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2833100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2725200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2638100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>5000</v>
       </c>
       <c r="H72" s="3">
         <v>5000</v>
@@ -3110,19 +3283,22 @@
         <v>5000</v>
       </c>
       <c r="L72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M72" s="3">
         <v>3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1487300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1437300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1404900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1439300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1787400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>342800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>342100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>340600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>339300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>337700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>336300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>335000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-107900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-87000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-138100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,23 +3627,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3">
         <v>127500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>123700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>122800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3462,8 +3660,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E89" s="3">
         <v>142500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>111400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,23 +3953,24 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3766,8 +3986,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3866,22 +4095,22 @@
         <v>-3000</v>
       </c>
       <c r="E94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>200</v>
       </c>
       <c r="K94" s="3">
         <v>200</v>
@@ -3889,8 +4118,8 @@
       <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>200</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,23 +4321,26 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-92800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>162700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4117,11 +4362,14 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4129,14 +4377,14 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4152,8 +4400,8 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E102" s="3">
         <v>46700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>117900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>126500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,103 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>332500</v>
+        <v>355200</v>
       </c>
       <c r="E8" s="3">
+        <v>343300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>332400</v>
+      </c>
+      <c r="G8" s="3">
         <v>319000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>306000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>303200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -766,17 +774,23 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,14 +1024,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>22000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,38 +1044,44 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>146900</v>
+      </c>
+      <c r="F15" s="3">
         <v>147400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>144000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>140200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>139200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1048,17 +1094,23 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,43 +1124,45 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>433000</v>
+        <v>392400</v>
       </c>
       <c r="E17" s="3">
+        <v>424300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>431700</v>
+      </c>
+      <c r="G17" s="3">
         <v>384000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>346300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>350800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1116,29 +1170,35 @@
       <c r="P17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100500</v>
+        <v>-37200</v>
       </c>
       <c r="E18" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-99300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-65000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-40300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-47600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1151,17 +1211,23 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,29 +1244,31 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>700</v>
+        <v>14400</v>
       </c>
       <c r="E20" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-109900</v>
+      </c>
+      <c r="G20" s="3">
         <v>8300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>8700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-26000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1213,38 +1281,44 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-375700</v>
+        <v>126900</v>
       </c>
       <c r="E21" s="3">
+        <v>109600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="G21" s="3">
         <v>87200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>108500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>65600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,29 +1340,35 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F22" s="3">
         <v>50400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>51000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>54500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>65300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1301,96 +1381,108 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-150100</v>
+        <v>-72800</v>
       </c>
       <c r="E23" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-259600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-107700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-86100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-138900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-151200</v>
+        <v>-74100</v>
       </c>
       <c r="E26" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-107900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-87000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-138100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-151200</v>
+        <v>-74100</v>
       </c>
       <c r="E27" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-107900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-87000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-138100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,29 +1840,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-700</v>
+        <v>-14400</v>
       </c>
       <c r="E32" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>109900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-8700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>26000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1741,61 +1881,73 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-151200</v>
+        <v>-74100</v>
       </c>
       <c r="E33" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-107900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-87000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-138100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-151200</v>
+        <v>-74100</v>
       </c>
       <c r="E35" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-107900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-87000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-138100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,34 +2139,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>345200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>274300</v>
+      </c>
+      <c r="F41" s="3">
         <v>313800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>295700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>249000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>131100</v>
       </c>
-      <c r="H41" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
-        <v>900</v>
-      </c>
       <c r="K41" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L41" s="3">
         <v>900</v>
@@ -2006,13 +2180,19 @@
         <v>900</v>
       </c>
       <c r="O41" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P41" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>800</v>
+      </c>
+      <c r="R41" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,29 +2235,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65600</v>
+        <v>77400</v>
       </c>
       <c r="E43" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>64700</v>
+      </c>
+      <c r="G43" s="3">
         <v>72200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>70900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>61700</v>
       </c>
-      <c r="H43" s="3">
-        <v>64200</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2090,38 +2276,44 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>80300</v>
+      </c>
+      <c r="F44" s="3">
         <v>47300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>60800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>82600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>79900</v>
       </c>
-      <c r="H44" s="3">
-        <v>64600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2134,126 +2326,144 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F45" s="3">
         <v>14300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>16000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16300</v>
       </c>
-      <c r="H45" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>441000</v>
+        <v>529100</v>
       </c>
       <c r="E46" s="3">
+        <v>447800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>440100</v>
+      </c>
+      <c r="G46" s="3">
         <v>442200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>418400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>289100</v>
       </c>
-      <c r="H46" s="3">
-        <v>151500</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>900</v>
+      </c>
+      <c r="K46" s="3">
         <v>800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1100</v>
       </c>
       <c r="L46" s="3">
         <v>1000</v>
       </c>
       <c r="M46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1425100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1347700</v>
+      </c>
+      <c r="F47" s="3">
         <v>1381000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1408200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1316700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1265000</v>
       </c>
-      <c r="H47" s="3">
-        <v>1311100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2266,38 +2476,44 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>102100</v>
+      </c>
+      <c r="F48" s="3">
         <v>105300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>110900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>115000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>120600</v>
       </c>
-      <c r="H48" s="3">
-        <v>126400</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2310,38 +2526,44 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>919800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>934100</v>
+      </c>
+      <c r="F49" s="3">
         <v>948600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>961600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>978000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>993800</v>
       </c>
-      <c r="H49" s="3">
-        <v>1014400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2354,17 +2576,23 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
-        <v>356200</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>355000</v>
+      </c>
+      <c r="K52" s="3">
         <v>354300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>353300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>352300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>350400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>348700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>347200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>346200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2877500</v>
+        <v>2973800</v>
       </c>
       <c r="E54" s="3">
+        <v>2833300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2876600</v>
+      </c>
+      <c r="G54" s="3">
         <v>2924700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2829900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2670400</v>
       </c>
-      <c r="H54" s="3">
-        <v>2604400</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>355900</v>
+      </c>
+      <c r="K54" s="3">
         <v>355100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>354400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>353400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>351400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>349800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>348400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>347200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,73 +2879,81 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>321100</v>
+        <v>139000</v>
       </c>
       <c r="E57" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>93700</v>
+      </c>
+      <c r="G57" s="3">
         <v>53300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>90700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>102600</v>
       </c>
-      <c r="H57" s="3">
-        <v>225900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F58" s="3">
         <v>12900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>13400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>14700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
-        <v>469100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,126 +2966,144 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>423600</v>
+        <v>704600</v>
       </c>
       <c r="E59" s="3">
+        <v>626300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>660500</v>
+      </c>
+      <c r="G59" s="3">
         <v>675800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>530900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>446000</v>
       </c>
-      <c r="H59" s="3">
-        <v>319200</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>757500</v>
+        <v>856300</v>
       </c>
       <c r="E60" s="3">
+        <v>760500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>767100</v>
+      </c>
+      <c r="G60" s="3">
         <v>742500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>636400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>564600</v>
       </c>
-      <c r="H60" s="3">
-        <v>1014000</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>2814100</v>
       </c>
       <c r="E61" s="3">
+        <v>2816300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2818600</v>
+      </c>
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>109100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>169700</v>
       </c>
-      <c r="H61" s="3">
-        <v>250500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2839,31 +3125,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3604800</v>
+        <v>934100</v>
       </c>
       <c r="E62" s="3">
+        <v>840400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>864200</v>
+      </c>
+      <c r="G62" s="3">
         <v>3616400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3489300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3375400</v>
       </c>
-      <c r="H62" s="3">
-        <v>3133400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>12100</v>
-      </c>
       <c r="J62" s="3">
-        <v>12100</v>
+        <v>6100</v>
       </c>
       <c r="K62" s="3">
         <v>12100</v>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4364800</v>
+        <v>4604400</v>
       </c>
       <c r="E66" s="3">
+        <v>4417200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4449800</v>
+      </c>
+      <c r="G66" s="3">
         <v>4361900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4234800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4109700</v>
       </c>
-      <c r="H66" s="3">
-        <v>4391800</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K66" s="3">
         <v>12300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>12200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>12800</v>
       </c>
       <c r="L66" s="3">
         <v>12200</v>
       </c>
       <c r="M66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="O66" s="3">
         <v>12100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,28 +3595,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-3256700</v>
       </c>
       <c r="E72" s="3">
+        <v>-3182600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-3095200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2833100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2725200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2638100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>5000</v>
       </c>
       <c r="J72" s="3">
         <v>5000</v>
@@ -3286,19 +3634,25 @@
         <v>5000</v>
       </c>
       <c r="M72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O72" s="3">
         <v>3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1487300</v>
+        <v>-1630600</v>
       </c>
       <c r="E76" s="3">
+        <v>-1584000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1573200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1437300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1404900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1439300</v>
       </c>
-      <c r="H76" s="3">
-        <v>-1787400</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>349500</v>
+      </c>
+      <c r="K76" s="3">
         <v>342800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>342100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>340600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>339300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>337700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>336300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>335000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-151200</v>
+        <v>-74100</v>
       </c>
       <c r="E81" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-107900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-87000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-138100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,29 +4024,31 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>135100</v>
       </c>
       <c r="E83" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>130900</v>
+      </c>
+      <c r="G83" s="3">
         <v>127500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>123700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>122800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3663,17 +4061,23 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F89" s="3">
         <v>6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>142500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>111400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-33900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,29 +4394,31 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-3400</v>
       </c>
       <c r="E91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3989,17 +4431,23 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>200</v>
       </c>
       <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>200</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4810,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F100" s="3">
         <v>14400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-92800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>9900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>162700</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4365,11 +4857,17 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,20 +4875,20 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4403,43 +4901,49 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="F102" s="3">
         <v>18100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>46700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>117900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>126500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
@@ -4448,12 +4952,18 @@
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>355200</v>
+        <v>386700</v>
       </c>
       <c r="E8" s="3">
+        <v>696500</v>
+      </c>
+      <c r="F8" s="3">
         <v>343300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>332400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>319000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>306000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>303200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -780,8 +784,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,11 +1050,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>22000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,31 +1079,34 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>149600</v>
+        <v>18900</v>
       </c>
       <c r="E15" s="3">
-        <v>146900</v>
+        <v>38500</v>
       </c>
       <c r="F15" s="3">
-        <v>147400</v>
+        <v>19100</v>
       </c>
       <c r="G15" s="3">
-        <v>144000</v>
+        <v>21700</v>
       </c>
       <c r="H15" s="3">
-        <v>140200</v>
+        <v>22300</v>
       </c>
       <c r="I15" s="3">
-        <v>139200</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+        <v>22500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>23100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1100,8 +1123,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,46 +1152,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>392400</v>
+        <v>411500</v>
       </c>
       <c r="E17" s="3">
+        <v>812500</v>
+      </c>
+      <c r="F17" s="3">
         <v>424300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>431700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>384000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>346300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>350800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1176,32 +1203,35 @@
       <c r="R17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-37200</v>
+        <v>-24800</v>
       </c>
       <c r="E18" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-81000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-99300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-65000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-40300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-47600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,8 +1247,8 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,32 +1279,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14400</v>
+        <v>-21900</v>
       </c>
       <c r="E20" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F20" s="3">
         <v>43700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-109900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1287,40 +1321,43 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>126900</v>
+        <v>-27800</v>
       </c>
       <c r="E21" s="3">
-        <v>109600</v>
+        <v>-19500</v>
       </c>
       <c r="F21" s="3">
-        <v>-61800</v>
+        <v>-18200</v>
       </c>
       <c r="G21" s="3">
-        <v>87200</v>
+        <v>-187500</v>
       </c>
       <c r="H21" s="3">
-        <v>108500</v>
+        <v>-34400</v>
       </c>
       <c r="I21" s="3">
-        <v>65600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+        <v>-9100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-50500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1346,32 +1383,35 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50100</v>
+        <v>47100</v>
       </c>
       <c r="E22" s="3">
+        <v>99900</v>
+      </c>
+      <c r="F22" s="3">
         <v>49800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>65300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1387,8 +1427,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,84 +1436,90 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-72800</v>
+        <v>-93800</v>
       </c>
       <c r="E23" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-87100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-259600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-107700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-86100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-138900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1300</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>400</v>
@@ -1482,10 +1528,10 @@
         <v>400</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-74100</v>
+        <v>-92700</v>
       </c>
       <c r="E26" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-87400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-262100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-107900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-87000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-138100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-74100</v>
+        <v>-92700</v>
       </c>
       <c r="E27" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-87400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-262100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-107900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-87000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-138100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,32 +1913,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14400</v>
+        <v>21900</v>
       </c>
       <c r="E32" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-43700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>109900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1887,67 +1957,73 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-74100</v>
+        <v>-92700</v>
       </c>
       <c r="E33" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-87400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-262100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-107900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-87000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-138100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-74100</v>
+        <v>-92700</v>
       </c>
       <c r="E35" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-87400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-262100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-107900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-87000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-138100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>280200</v>
+      </c>
+      <c r="E41" s="3">
         <v>345200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>274300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>313800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>295700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>249000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>131100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>700</v>
       </c>
       <c r="K41" s="3">
         <v>700</v>
       </c>
       <c r="L41" s="3">
+        <v>700</v>
+      </c>
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,32 +2331,35 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E43" s="3">
         <v>77400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>72200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>70900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>61700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2282,8 +2375,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2291,32 +2384,35 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E44" s="3">
         <v>67000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>80300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>47300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>60800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>82600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>79900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2332,8 +2428,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2341,37 +2437,40 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E45" s="3">
         <v>39500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2380,93 +2479,99 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>432200</v>
+      </c>
+      <c r="E46" s="3">
         <v>529100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>447800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>440100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>442200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>418400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>289100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1100</v>
       </c>
       <c r="Q46" s="3">
         <v>1100</v>
       </c>
       <c r="R46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1480100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1425100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1347700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1381000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1408200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1316700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1265000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,8 +2587,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2491,32 +2596,35 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E48" s="3">
         <v>98300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>102100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>105300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>110900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>115000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>120600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2532,8 +2640,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2541,32 +2649,35 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>903900</v>
+      </c>
+      <c r="E49" s="3">
         <v>919800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>934100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>948600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>961600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>978000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>993800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2582,8 +2693,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>355000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>354300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>353300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>352300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>350400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>348700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>347200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>346200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2916400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2973800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2833300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2876600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2924700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2829900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2670400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>355900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>355100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>354400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>353400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>351400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>349800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>348400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>347200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E57" s="3">
         <v>139000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>121500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>93700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>90700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>102600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -2926,37 +3057,40 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12700</v>
+        <v>16800</v>
       </c>
       <c r="E58" s="3">
         <v>12700</v>
       </c>
       <c r="F58" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G58" s="3">
         <v>12900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2972,8 +3106,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2981,132 +3115,141 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E59" s="3">
         <v>704600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>626300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>660500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>675800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>530900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>446000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>940700</v>
+      </c>
+      <c r="E60" s="3">
         <v>856300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>760500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>767100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>742500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>636400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>564600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2702100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2814100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2816300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2818600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>109100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>169700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3131,34 +3274,37 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E62" s="3">
         <v>934100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>840400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>864200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3616400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3489300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3375400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>12100</v>
       </c>
       <c r="L62" s="3">
         <v>12100</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4625900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4604400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4417200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4449800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4361900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4234800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4109700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>12100</v>
       </c>
       <c r="P66" s="3">
         <v>12100</v>
       </c>
       <c r="Q66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="R66" s="3">
         <v>12300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,31 +3772,34 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3363600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3256700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3182600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3095200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2833100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2725200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2638100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>5000</v>
       </c>
       <c r="K72" s="3">
         <v>5000</v>
@@ -3640,19 +3814,22 @@
         <v>5000</v>
       </c>
       <c r="O72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P72" s="3">
         <v>3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1709500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1630600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1584000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1573200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1437300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1404900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1439300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>349500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>342800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>342100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>340600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>339300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>337700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>336300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>335000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-74100</v>
+        <v>-92700</v>
       </c>
       <c r="E81" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-87400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-262100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-107900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-87000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-138100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,31 +4224,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>135100</v>
+        <v>18900</v>
       </c>
       <c r="E83" s="3">
-        <v>132400</v>
+        <v>38500</v>
       </c>
       <c r="F83" s="3">
-        <v>130900</v>
+        <v>19100</v>
       </c>
       <c r="G83" s="3">
-        <v>127500</v>
+        <v>21700</v>
       </c>
       <c r="H83" s="3">
-        <v>123700</v>
+        <v>22300</v>
       </c>
       <c r="I83" s="3">
-        <v>122800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+        <v>22500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>23100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4067,8 +4266,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>78400</v>
+        <v>77900</v>
       </c>
       <c r="E89" s="3">
+        <v>64200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>142500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>111400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,32 +4616,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3400</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4437,8 +4658,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,40 +4773,43 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3400</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-3000</v>
       </c>
       <c r="G94" s="3">
         <v>-3000</v>
       </c>
       <c r="H94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>200</v>
       </c>
       <c r="N94" s="3">
         <v>200</v>
@@ -4587,8 +4817,8 @@
       <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>200</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,32 +5059,35 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4300</v>
+        <v>-140700</v>
       </c>
       <c r="E100" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-20800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-92800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>162700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4863,35 +5109,38 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4907,8 +5156,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70800</v>
+        <v>-65000</v>
       </c>
       <c r="E102" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>117900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>126500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,116 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>396200</v>
+      </c>
+      <c r="E8" s="3">
         <v>386700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>696500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>343300</v>
       </c>
-      <c r="G8" s="3">
-        <v>332400</v>
-      </c>
       <c r="H8" s="3">
+        <v>324100</v>
+      </c>
+      <c r="I8" s="3">
         <v>319000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>306000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>303200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,8 +790,8 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,11 +1072,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>22000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1073,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1082,35 +1101,38 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E15" s="3">
         <v>18900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>38500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,8 +1148,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,49 +1178,50 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>409700</v>
+      </c>
+      <c r="E17" s="3">
         <v>411500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>812500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>424300</v>
       </c>
-      <c r="G17" s="3">
-        <v>431700</v>
-      </c>
       <c r="H17" s="3">
+        <v>433300</v>
+      </c>
+      <c r="I17" s="3">
         <v>384000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>346300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>350800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1206,35 +1232,38 @@
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-116000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-81000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-99300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-65000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-47600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,8 +1279,8 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
@@ -1259,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,35 +1312,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-21900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>58000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>43700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-109900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1324,44 +1357,47 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-187500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-197400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-34400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-50500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,35 +1422,38 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E22" s="3">
         <v>47100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>99900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>49800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>51000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>65300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1430,8 +1469,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,90 +1478,96 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-93800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-157800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-87100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-259600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-269500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-107700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-86100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-138900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>2500</v>
-      </c>
       <c r="H24" s="3">
+        <v>800</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>400</v>
@@ -1531,10 +1576,10 @@
         <v>400</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-92700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-159300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-87400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-262100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-270200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-107900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-87000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-138100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-92700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-159300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-87400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-262100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-270200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-107900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-87000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-138100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,35 +1982,38 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>21900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-58000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-43700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>109900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1960,70 +2029,76 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-92700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-159300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-87400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-262100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-270200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-107900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-87000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-138100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-92700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-159300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-87400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-262100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-270200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-107900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-87000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-138100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>208500</v>
+      </c>
+      <c r="E41" s="3">
         <v>280200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>345200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>274300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>313800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>295700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>249000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>131100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>700</v>
       </c>
       <c r="L41" s="3">
         <v>700</v>
       </c>
       <c r="M41" s="3">
+        <v>700</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,35 +2423,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E43" s="3">
         <v>71300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>77400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>72200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>70900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>61700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2378,8 +2470,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2387,35 +2479,38 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E44" s="3">
         <v>54200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>67000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>80300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>82600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>79900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2431,8 +2526,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2440,40 +2535,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E45" s="3">
         <v>26600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2482,99 +2580,105 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>342800</v>
+      </c>
+      <c r="E46" s="3">
         <v>432200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>529100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>447800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>440100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>442200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>418400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>289100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1100</v>
       </c>
       <c r="R46" s="3">
         <v>1100</v>
       </c>
       <c r="S46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1450200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1480100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1425100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1347700</v>
       </c>
-      <c r="G47" s="3">
-        <v>1381000</v>
-      </c>
       <c r="H47" s="3">
+        <v>1376800</v>
+      </c>
+      <c r="I47" s="3">
         <v>1408200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1316700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1265000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2590,8 +2694,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2599,35 +2703,38 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E48" s="3">
         <v>98000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>98300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>102100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>105300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>115000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>120600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2643,8 +2750,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2652,35 +2759,38 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>889100</v>
+      </c>
+      <c r="E49" s="3">
         <v>903900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>919800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>934100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>948600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>961600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>978000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>993800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2696,8 +2806,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>355000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>354300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>353300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>352300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>350400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>348700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>347200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>346200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2785600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2916400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2973800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2833300</v>
       </c>
-      <c r="G54" s="3">
-        <v>2876600</v>
-      </c>
       <c r="H54" s="3">
+        <v>2872400</v>
+      </c>
+      <c r="I54" s="3">
         <v>2924700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2829900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2670400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>355900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>355100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>354400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>353400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>351400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>349800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>348400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>347200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E57" s="3">
         <v>127900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>139000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>121500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>93700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>90700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>102600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3060,40 +3190,43 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E58" s="3">
         <v>16800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>12700</v>
       </c>
       <c r="F58" s="3">
         <v>12700</v>
       </c>
       <c r="G58" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H58" s="3">
         <v>12900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3109,8 +3242,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,141 +3251,150 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>761500</v>
+      </c>
+      <c r="E59" s="3">
         <v>796000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>704600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>626300</v>
       </c>
-      <c r="G59" s="3">
-        <v>660500</v>
-      </c>
       <c r="H59" s="3">
+        <v>667000</v>
+      </c>
+      <c r="I59" s="3">
         <v>675800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>530900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>446000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>874200</v>
+      </c>
+      <c r="E60" s="3">
         <v>940700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>856300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>760500</v>
       </c>
-      <c r="G60" s="3">
-        <v>767100</v>
-      </c>
       <c r="H60" s="3">
+        <v>773500</v>
+      </c>
+      <c r="I60" s="3">
         <v>742500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>636400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>564600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2700300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2702100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2814100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2816300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2818600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>109100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>169700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3277,37 +3419,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>951300</v>
+      </c>
+      <c r="E62" s="3">
         <v>983000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>934100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>840400</v>
       </c>
-      <c r="G62" s="3">
-        <v>864200</v>
-      </c>
       <c r="H62" s="3">
+        <v>869800</v>
+      </c>
+      <c r="I62" s="3">
         <v>3616400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3489300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3375400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>12100</v>
       </c>
       <c r="M62" s="3">
         <v>12100</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4525700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4625900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4604400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4417200</v>
       </c>
-      <c r="G66" s="3">
-        <v>4449800</v>
-      </c>
       <c r="H66" s="3">
+        <v>4461900</v>
+      </c>
+      <c r="I66" s="3">
         <v>4361900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4234800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4109700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>12100</v>
       </c>
       <c r="Q66" s="3">
         <v>12100</v>
       </c>
       <c r="R66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="S66" s="3">
         <v>12300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,34 +3945,37 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3417000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3363600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3256700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3182600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-3095200</v>
-      </c>
       <c r="H72" s="3">
+        <v>-3111500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2833100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2725200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2638100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>5000</v>
       </c>
       <c r="L72" s="3">
         <v>5000</v>
@@ -3817,19 +3990,22 @@
         <v>5000</v>
       </c>
       <c r="P72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1740100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1709500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1630600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1584000</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1573200</v>
-      </c>
       <c r="H76" s="3">
+        <v>-1589500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1437300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1404900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1439300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>349500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>342800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>342100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>340600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>339300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>337700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>336300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>335000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-92700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-159300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-87400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-262100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-270200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-107900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-87000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-138100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,35 +4422,36 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E83" s="3">
         <v>18900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4269,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E89" s="3">
         <v>77900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>64200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>142500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>111400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,35 +4836,36 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4661,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,43 +5002,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3000</v>
       </c>
       <c r="H94" s="3">
         <v>-3000</v>
       </c>
       <c r="I94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>200</v>
       </c>
       <c r="O94" s="3">
         <v>200</v>
@@ -4820,8 +5049,8 @@
       <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>200</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,35 +5304,38 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-140700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-92800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>162700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5112,38 +5357,41 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5159,8 +5407,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-65000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>117900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>126500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -761,7 +761,7 @@
         <v>696500</v>
       </c>
       <c r="G8" s="3">
-        <v>343300</v>
+        <v>342300</v>
       </c>
       <c r="H8" s="3">
         <v>324100</v>
@@ -1119,7 +1119,7 @@
         <v>38500</v>
       </c>
       <c r="G15" s="3">
-        <v>19100</v>
+        <v>166100</v>
       </c>
       <c r="H15" s="3">
         <v>21700</v>
@@ -1194,7 +1194,7 @@
         <v>812500</v>
       </c>
       <c r="G17" s="3">
-        <v>424300</v>
+        <v>424800</v>
       </c>
       <c r="H17" s="3">
         <v>433300</v>
@@ -1250,7 +1250,7 @@
         <v>-116000</v>
       </c>
       <c r="G18" s="3">
-        <v>-81000</v>
+        <v>-82500</v>
       </c>
       <c r="H18" s="3">
         <v>-109200</v>
@@ -1328,7 +1328,7 @@
         <v>58000</v>
       </c>
       <c r="G20" s="3">
-        <v>43700</v>
+        <v>93500</v>
       </c>
       <c r="H20" s="3">
         <v>-109900</v>
@@ -1384,7 +1384,7 @@
         <v>-19500</v>
       </c>
       <c r="G21" s="3">
-        <v>-18200</v>
+        <v>30200</v>
       </c>
       <c r="H21" s="3">
         <v>-197400</v>
@@ -1440,7 +1440,7 @@
         <v>99900</v>
       </c>
       <c r="G22" s="3">
-        <v>49800</v>
+        <v>99600</v>
       </c>
       <c r="H22" s="3">
         <v>50400</v>
@@ -1496,7 +1496,7 @@
         <v>-157800</v>
       </c>
       <c r="G23" s="3">
-        <v>-87100</v>
+        <v>-88600</v>
       </c>
       <c r="H23" s="3">
         <v>-269500</v>
@@ -1664,7 +1664,7 @@
         <v>-159300</v>
       </c>
       <c r="G26" s="3">
-        <v>-87400</v>
+        <v>-88800</v>
       </c>
       <c r="H26" s="3">
         <v>-270200</v>
@@ -1720,7 +1720,7 @@
         <v>-159300</v>
       </c>
       <c r="G27" s="3">
-        <v>-87400</v>
+        <v>-88800</v>
       </c>
       <c r="H27" s="3">
         <v>-270200</v>
@@ -2000,7 +2000,7 @@
         <v>-58000</v>
       </c>
       <c r="G32" s="3">
-        <v>-43700</v>
+        <v>-93500</v>
       </c>
       <c r="H32" s="3">
         <v>109900</v>
@@ -2056,7 +2056,7 @@
         <v>-159300</v>
       </c>
       <c r="G33" s="3">
-        <v>-87400</v>
+        <v>-88800</v>
       </c>
       <c r="H33" s="3">
         <v>-270200</v>
@@ -2168,7 +2168,7 @@
         <v>-159300</v>
       </c>
       <c r="G35" s="3">
-        <v>-87400</v>
+        <v>-88800</v>
       </c>
       <c r="H35" s="3">
         <v>-270200</v>
@@ -4360,7 +4360,7 @@
         <v>-159300</v>
       </c>
       <c r="G81" s="3">
-        <v>-87400</v>
+        <v>-88800</v>
       </c>
       <c r="H81" s="3">
         <v>-270200</v>

--- a/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>VVNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>407300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>392700</v>
+      </c>
+      <c r="F8" s="3">
         <v>396200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>386700</v>
       </c>
-      <c r="F8" s="3">
-        <v>696500</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>354100</v>
+      </c>
+      <c r="I8" s="3">
         <v>342300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>324100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>319000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>306000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>303200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
@@ -793,17 +801,23 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,16 +1082,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1075,14 +1115,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>22000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1095,17 +1135,23 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,32 +1159,32 @@
         <v>19100</v>
       </c>
       <c r="E15" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="G15" s="3">
         <v>18900</v>
       </c>
-      <c r="F15" s="3">
-        <v>38500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>166100</v>
-      </c>
       <c r="H15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J15" s="3">
         <v>21700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>22300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>22500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>23100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1151,17 +1197,23 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,55 +1231,57 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>383400</v>
+      </c>
+      <c r="F17" s="3">
         <v>409700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>411500</v>
       </c>
-      <c r="F17" s="3">
-        <v>812500</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>387700</v>
+      </c>
+      <c r="I17" s="3">
         <v>424800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>433300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>384000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>346300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>350800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1235,41 +1289,47 @@
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-24800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-116000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-82500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-109200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-65000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-40300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-47600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1282,17 +1342,23 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,41 +1379,43 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>31900</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-21900</v>
       </c>
-      <c r="F20" s="3">
-        <v>58000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>93500</v>
-      </c>
       <c r="H20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>43700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-109900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-26000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1360,50 +1428,56 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-27800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>30200</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-197400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-34400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-50500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,41 +1499,47 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F22" s="3">
         <v>38000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>47100</v>
       </c>
-      <c r="F22" s="3">
-        <v>99900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>99600</v>
-      </c>
       <c r="H22" s="3">
+        <v>50100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>49800</v>
+      </c>
+      <c r="J22" s="3">
         <v>50400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>51000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>54500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>65300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1472,120 +1552,132 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-51500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-93800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-157800</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-88600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-269500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-107700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-86100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-138900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>400</v>
       </c>
       <c r="O24" s="3">
         <v>400</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-53500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-92700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-159300</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-88800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-270200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-107900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-87000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-138100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-53500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-92700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-159300</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-88800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-270200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-107900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-87000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-138100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,41 +2119,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-31900</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>21900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-58000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-93500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="J32" s="3">
         <v>109900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>26000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2032,73 +2172,85 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-53500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-92700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-159300</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-88800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-270200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-107900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-87000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-138100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-53500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-92700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-159300</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-88800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-270200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-107900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-87000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-138100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2486,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>153200</v>
+      </c>
+      <c r="F41" s="3">
         <v>208500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>280200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>345200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>274300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>313800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>295700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>249000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>131100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1000</v>
       </c>
       <c r="P41" s="3">
         <v>900</v>
@@ -2365,13 +2539,19 @@
         <v>900</v>
       </c>
       <c r="S41" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T41" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>800</v>
+      </c>
+      <c r="V41" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,41 +2606,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>58900</v>
+      </c>
+      <c r="F43" s="3">
         <v>63700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>71300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>77400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>67000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>64700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>72200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>70900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>61700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2473,50 +2659,56 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>64200</v>
+      </c>
+      <c r="F44" s="3">
         <v>51300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>54200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>67000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>80300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>47300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>60800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>82600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>79900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,162 +2721,180 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F45" s="3">
         <v>19400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>26600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>39500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>26200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>14300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>13500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>16000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>481800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>312800</v>
+      </c>
+      <c r="F46" s="3">
         <v>342800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>432200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>529100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>447800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>440100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>442200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>418400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>289100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1100</v>
       </c>
       <c r="P46" s="3">
         <v>1000</v>
       </c>
       <c r="Q46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1485700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1421400</v>
+      </c>
+      <c r="F47" s="3">
         <v>1450200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1480100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1425100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1347700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1376800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1408200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1316700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1265000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2697,50 +2907,56 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100900</v>
+      </c>
+      <c r="F48" s="3">
         <v>101400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>98000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>98300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>102100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>105300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>110900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>115000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>120600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2753,50 +2969,56 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>840500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>876000</v>
+      </c>
+      <c r="F49" s="3">
         <v>889100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>903900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>919800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>934100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>948600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>961600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>978000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>993800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2809,17 +3031,23 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>355000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>354300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>353300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>352300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>350400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>348700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>347200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>346200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>345000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2908300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2713200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2785600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2916400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2973800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2833300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2872400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2924700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2829900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2670400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>355900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>355100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>354400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>353400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>351400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>349800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>348400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>347200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,97 +3402,105 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F57" s="3">
         <v>96300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>127900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>139000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>121500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>93700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>53300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>90700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>102600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F58" s="3">
         <v>16400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>16800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>12700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>12700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>12900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>13400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>16000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3245,162 +3513,180 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>811700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>724100</v>
+      </c>
+      <c r="F59" s="3">
         <v>761500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>796000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>704600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>626300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>667000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>675800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>530900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>446000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>964200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>852800</v>
+      </c>
+      <c r="F60" s="3">
         <v>874200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>940700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>856300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>760500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>773500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>742500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>636400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>564600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2698200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2698200</v>
+      </c>
+      <c r="F61" s="3">
         <v>2700300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2702100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2814100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2816300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2818600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>109100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>169700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,43 +3708,49 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>961500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>916100</v>
+      </c>
+      <c r="F62" s="3">
         <v>951300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>983000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>934100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>840400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>869800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3616400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3489300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3375400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>12100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>12100</v>
       </c>
       <c r="O62" s="3">
         <v>12100</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>12100</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="V62" s="3">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4624000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4467000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4525700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4625900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4604400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4417200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4461900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4361900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4234800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4109700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>12200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>12800</v>
       </c>
       <c r="P66" s="3">
         <v>12200</v>
       </c>
       <c r="Q66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="S66" s="3">
         <v>12100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>12300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,40 +4290,46 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3448000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3444500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3417000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3363600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3256700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3182600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3111500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2833100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2725200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2638100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>5000</v>
       </c>
       <c r="N72" s="3">
         <v>5000</v>
@@ -3993,19 +4341,25 @@
         <v>5000</v>
       </c>
       <c r="Q72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S72" s="3">
         <v>3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1715600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1753900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1740100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1709500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1630600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1584000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1589500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1437300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1404900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1439300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>349500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>342800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>342100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>340600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>339300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>337700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>336300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>335000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>334000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-53500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-92700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-159300</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-88800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-270200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-107900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-87000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-138100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,32 +4830,32 @@
         <v>19100</v>
       </c>
       <c r="E83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="G83" s="3">
         <v>18900</v>
       </c>
-      <c r="F83" s="3">
-        <v>38500</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I83" s="3">
         <v>19100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>21700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>22300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>22500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>23100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4470,17 +4868,23 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-59700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>77900</v>
       </c>
-      <c r="F89" s="3">
-        <v>64200</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>78400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>142500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>111400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-33900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,41 +5277,43 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-16600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4884,17 +5326,23 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>200</v>
       </c>
       <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>200</v>
+      </c>
+      <c r="S94" s="3">
+        <v>200</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,41 +5793,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-140700</v>
       </c>
-      <c r="F100" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-20800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>14400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-92800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>162700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5360,44 +5852,50 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>346500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
@@ -5410,55 +5908,61 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-71600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-65000</v>
       </c>
-      <c r="F102" s="3">
-        <v>31400</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>70800</v>
+      </c>
+      <c r="I102" s="3">
         <v>-39500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>18100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>46700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>117900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>126500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
@@ -5467,12 +5971,18 @@
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
     </row>
